--- a/biology/Botanique/Bactris/Bactris.xlsx
+++ b/biology/Botanique/Bactris/Bactris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bactris est un genre de palmiers qui comprend 79 espèces natives d'Amérique centrale, d'Amérique du Sud et des Caraïbes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres dont le stipe peut atteindre une hauteur allant de 4 à 20 mètres. Les feuilles atteignent 5 m de long. Elles sont pennées et recouvertes de nombreuses folioles. Le fruit est une drupe de 2 à 6 cm de longueur, qui est comestible suivant les espèces.
 </t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Cocoeae
@@ -576,7 +592,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bactris acanthocarpa
 Bactris bifida
@@ -624,7 +642,9 @@
           <t>Espèces menacées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Six espèces appartenant au genre Bactris sont aujourd'hui menacées, selon les critères de la Liste rouge de l'UICN. La situation est très critique pour le Bactris nancibensis.
 Bactris setulosa : LR/nt
